--- a/medicine/Enfance/Mano_Gentil/Mano_Gentil.xlsx
+++ b/medicine/Enfance/Mano_Gentil/Mano_Gentil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mano Gentil (née le 23 décembre 1961 à Grenoble) est une écrivaine française.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mano Gentil publie son premier livre en 1996 : Boucher double, qui inaugure la sous-série Cheryl du Poulpe (éditions Baleine), et qui est alors qualifié de « polar durassien ».
 Elle multiplie ensuite les registres (notamment en littérature jeunesse) et les interventions (ateliers d'écriture, lectures spectacles accompagnée d'une danseuse...)
@@ -543,7 +557,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Boucher double, Baleine, 1996
 Le Cri du gecko, Alpha Bleu, 1997
